--- a/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>78385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66176</v>
+        <v>66749</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91337</v>
+        <v>90271</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5334933748445817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4504028885897443</v>
+        <v>0.4543001207920437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6216473834390754</v>
+        <v>0.6143961155782912</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -765,19 +765,19 @@
         <v>109339</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97039</v>
+        <v>97028</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>121957</v>
+        <v>121245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6584168071646989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5843505828982836</v>
+        <v>0.5842834657645667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7344039728573827</v>
+        <v>0.7301133513983131</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>175</v>
@@ -786,19 +786,19 @@
         <v>187724</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171619</v>
+        <v>169776</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>205622</v>
+        <v>204215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5997739687902426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5483185620107265</v>
+        <v>0.5424313907411412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6569583784861412</v>
+        <v>0.6524617704920613</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>68542</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55590</v>
+        <v>56656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80751</v>
+        <v>80178</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4665066251554184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3783526165609246</v>
+        <v>0.3856038844217089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5495971114102559</v>
+        <v>0.5456998792079563</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -836,19 +836,19 @@
         <v>56724</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44106</v>
+        <v>44818</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69024</v>
+        <v>69035</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3415831928353011</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2655960271426174</v>
+        <v>0.2698866486016865</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4156494171017167</v>
+        <v>0.415716534235433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -857,19 +857,19 @@
         <v>125267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>107369</v>
+        <v>108776</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141372</v>
+        <v>143215</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4002260312097574</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3430416215138592</v>
+        <v>0.3475382295079387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4516814379892738</v>
+        <v>0.4575686092588587</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>81115</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66508</v>
+        <v>65815</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98959</v>
+        <v>97299</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2836610317535759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2325782287995388</v>
+        <v>0.2301571160367709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.346059912099775</v>
+        <v>0.3402551128915014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -982,19 +982,19 @@
         <v>142874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125046</v>
+        <v>124501</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160655</v>
+        <v>161978</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4033300718512445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3530041017640227</v>
+        <v>0.3514631134635472</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4535276603021079</v>
+        <v>0.4572605595302662</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -1003,19 +1003,19 @@
         <v>223989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>198166</v>
+        <v>200389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>246509</v>
+        <v>249940</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3498768055030019</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3095400110067619</v>
+        <v>0.3130134124027926</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3850535721098265</v>
+        <v>0.3904133222884181</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>204844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>187000</v>
+        <v>188660</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>219451</v>
+        <v>220144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7163389682464241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.653940087900225</v>
+        <v>0.6597448871084985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7674217712004613</v>
+        <v>0.7698428839632293</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>210</v>
@@ -1053,19 +1053,19 @@
         <v>211361</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>193580</v>
+        <v>192257</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>229189</v>
+        <v>229734</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5966699281487554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.546472339697892</v>
+        <v>0.5427394404697335</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6469958982359773</v>
+        <v>0.6485368865364527</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>405</v>
@@ -1074,19 +1074,19 @@
         <v>416205</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>393685</v>
+        <v>390254</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>442028</v>
+        <v>439805</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6501231944969981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6149464278901735</v>
+        <v>0.6095866777115819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6904599889932383</v>
+        <v>0.6869865875972074</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>75440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61488</v>
+        <v>62693</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90560</v>
+        <v>89244</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3967076559669304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3233416286827092</v>
+        <v>0.3296786306311843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4762207097008071</v>
+        <v>0.4693006114237129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>108</v>
@@ -1199,19 +1199,19 @@
         <v>109131</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95402</v>
+        <v>94197</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125641</v>
+        <v>123796</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4828606361495282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.422116561580041</v>
+        <v>0.4167851596471803</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5559109896021384</v>
+        <v>0.5477480288216884</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>181</v>
@@ -1220,19 +1220,19 @@
         <v>184570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>165939</v>
+        <v>164449</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>205309</v>
+        <v>204842</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4434942390511016</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3987261691364812</v>
+        <v>0.3951446734975488</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4933267097609028</v>
+        <v>0.4922047145276809</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>114724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99604</v>
+        <v>100920</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>128676</v>
+        <v>127471</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6032923440330696</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5237792902991929</v>
+        <v>0.5306993885762871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6766583713172907</v>
+        <v>0.6703213693688156</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -1270,19 +1270,19 @@
         <v>116878</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100368</v>
+        <v>102213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130607</v>
+        <v>131812</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5171393638504719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4440890103978616</v>
+        <v>0.4522519711783117</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.577883438419959</v>
+        <v>0.5832148403528197</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>229</v>
@@ -1291,19 +1291,19 @@
         <v>231603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210864</v>
+        <v>211331</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>250234</v>
+        <v>251724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5565057609488984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5066732902390969</v>
+        <v>0.5077952854723189</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6012738308635188</v>
+        <v>0.604855326502451</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>92320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>79581</v>
+        <v>78267</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107024</v>
+        <v>105783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4636649476885988</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3996857139161704</v>
+        <v>0.3930849386046949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5375153726681656</v>
+        <v>0.531282740967748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -1416,19 +1416,19 @@
         <v>120387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105548</v>
+        <v>105573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135529</v>
+        <v>135511</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.490893694679816</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4303862484639702</v>
+        <v>0.4304848561809774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5526370694039505</v>
+        <v>0.5525632612904995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -1437,19 +1437,19 @@
         <v>212707</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>191340</v>
+        <v>192482</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>233114</v>
+        <v>233368</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.478692750023209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4306071236871567</v>
+        <v>0.4331759996943003</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5246190811444534</v>
+        <v>0.5251886558773248</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>106789</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>92085</v>
+        <v>93326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119528</v>
+        <v>120842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5363350523114012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4624846273318344</v>
+        <v>0.4687172590322521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6003142860838296</v>
+        <v>0.606915061395305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -1487,19 +1487,19 @@
         <v>124854</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109712</v>
+        <v>109730</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139693</v>
+        <v>139668</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.509106305320184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4473629305960496</v>
+        <v>0.4474367387095006</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.56961375153603</v>
+        <v>0.5695151438190226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -1508,19 +1508,19 @@
         <v>231643</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>211236</v>
+        <v>210982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>253010</v>
+        <v>251868</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.521307249976791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4753809188555466</v>
+        <v>0.474811344122675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5693928763128429</v>
+        <v>0.5668240003056996</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>31925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23086</v>
+        <v>22252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41630</v>
+        <v>41741</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2953548576710998</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.21358431807502</v>
+        <v>0.2058684284044193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3851479021453302</v>
+        <v>0.3861714714676696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1633,19 +1633,19 @@
         <v>53955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42500</v>
+        <v>42645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66445</v>
+        <v>65754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.360442683343166</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2839187606005463</v>
+        <v>0.2848869752616709</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4438781462782678</v>
+        <v>0.4392650245850012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -1654,19 +1654,19 @@
         <v>85880</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71210</v>
+        <v>71628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>101176</v>
+        <v>102684</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3331508787070961</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2762447601987845</v>
+        <v>0.2778636137293083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3924881327817419</v>
+        <v>0.3983379423022324</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>76164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66459</v>
+        <v>66348</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85003</v>
+        <v>85837</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7046451423289002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6148520978546698</v>
+        <v>0.6138285285323302</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.78641568192498</v>
+        <v>0.7941315715955805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1704,19 +1704,19 @@
         <v>95736</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83246</v>
+        <v>83937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107191</v>
+        <v>107046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.639557316656834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5561218537217321</v>
+        <v>0.5607349754149986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7160812393994536</v>
+        <v>0.7151130247383292</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>171</v>
@@ -1725,19 +1725,19 @@
         <v>171900</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>156604</v>
+        <v>155096</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>186570</v>
+        <v>186152</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6668491212929039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6075118672182581</v>
+        <v>0.6016620576977679</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7237552398012159</v>
+        <v>0.7221363862706918</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>69773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58269</v>
+        <v>57624</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>83147</v>
+        <v>82068</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4297332961903975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3588790831236275</v>
+        <v>0.3549051899665103</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5121042271282514</v>
+        <v>0.5054555816457322</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -1850,19 +1850,19 @@
         <v>72221</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58931</v>
+        <v>58218</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84741</v>
+        <v>87082</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4046446129464527</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3301850936039595</v>
+        <v>0.3261914192926281</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4747942100034209</v>
+        <v>0.4879101918178862</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1871,19 +1871,19 @@
         <v>141994</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>125210</v>
+        <v>122918</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>162778</v>
+        <v>159973</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4165958812393671</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3673542699095433</v>
+        <v>0.360628228676407</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4775754551149931</v>
+        <v>0.4693449027368047</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>92591</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>79217</v>
+        <v>80296</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>104095</v>
+        <v>104740</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5702667038096025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4878957728717489</v>
+        <v>0.4945444183542678</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6411209168763726</v>
+        <v>0.6450948100334898</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>103</v>
@@ -1921,19 +1921,19 @@
         <v>106258</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93738</v>
+        <v>91397</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119548</v>
+        <v>120261</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5953553870535474</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5252057899965791</v>
+        <v>0.5120898081821135</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6698149063960405</v>
+        <v>0.6738085807073719</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>197</v>
@@ -1942,19 +1942,19 @@
         <v>198849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>178065</v>
+        <v>180870</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215633</v>
+        <v>217925</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5834041187606329</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.522424544885007</v>
+        <v>0.530655097263195</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6326457300904567</v>
+        <v>0.6393717713235929</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>122506</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104249</v>
+        <v>105926</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140685</v>
+        <v>140151</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3485139197984894</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.296573599822355</v>
+        <v>0.3013447468640942</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.400229800326831</v>
+        <v>0.3987094492024926</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>221</v>
@@ -2067,19 +2067,19 @@
         <v>229589</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>207015</v>
+        <v>206129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>247117</v>
+        <v>249264</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5183377573540728</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4673730024533446</v>
+        <v>0.4653717273938163</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5579097130423177</v>
+        <v>0.5627567251790072</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>338</v>
@@ -2088,19 +2088,19 @@
         <v>352096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>325723</v>
+        <v>324421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>382244</v>
+        <v>382150</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4431973585372492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.410000805110238</v>
+        <v>0.4083615789922701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4811462337381619</v>
+        <v>0.4810272058229307</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>229005</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210826</v>
+        <v>211360</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>247262</v>
+        <v>245585</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6514860802015106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.599770199673169</v>
+        <v>0.6012905507975075</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7034264001776449</v>
+        <v>0.6986552531359058</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>208</v>
@@ -2138,19 +2138,19 @@
         <v>213345</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>195817</v>
+        <v>193670</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>235919</v>
+        <v>236805</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4816622426459272</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4420902869576823</v>
+        <v>0.4372432748209929</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5326269975466554</v>
+        <v>0.5346282726061836</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>435</v>
@@ -2159,19 +2159,19 @@
         <v>442349</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>412201</v>
+        <v>412295</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>468722</v>
+        <v>470024</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5568026414627507</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5188537662618387</v>
+        <v>0.5189727941770693</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5899991948897619</v>
+        <v>0.5916384210077299</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>154540</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>132323</v>
+        <v>134820</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>174316</v>
+        <v>175235</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3315575283710774</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.283893137143272</v>
+        <v>0.2892499490494411</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3739864160754</v>
+        <v>0.3759583948644599</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>206</v>
@@ -2284,19 +2284,19 @@
         <v>221203</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>197486</v>
+        <v>196945</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>244223</v>
+        <v>244929</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4106149624410724</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3665887760098259</v>
+        <v>0.3655846836151242</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.453346287914365</v>
+        <v>0.4546571952328043</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>353</v>
@@ -2305,19 +2305,19 @@
         <v>375743</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>343609</v>
+        <v>346361</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>405765</v>
+        <v>406105</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3739426440072642</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3419626970978186</v>
+        <v>0.344701965806459</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4038209702986901</v>
+        <v>0.4041598709799007</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>311562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>291786</v>
+        <v>290867</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>333779</v>
+        <v>331282</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6684424716289226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6260135839245999</v>
+        <v>0.6240416051355401</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7161068628567282</v>
+        <v>0.710750050950559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>303</v>
@@ -2355,19 +2355,19 @@
         <v>317509</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>294489</v>
+        <v>293783</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>341226</v>
+        <v>341767</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5893850375589276</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.546653712085635</v>
+        <v>0.5453428047671955</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.633411223990174</v>
+        <v>0.6344153163848754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>617</v>
@@ -2376,19 +2376,19 @@
         <v>629071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>599049</v>
+        <v>598709</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>661205</v>
+        <v>658453</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6260573559927358</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5961790297013099</v>
+        <v>0.5958401290200999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6580373029021814</v>
+        <v>0.6552980341935413</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>706004</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>661905</v>
+        <v>662881</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>747338</v>
+        <v>745847</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.369591729116386</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3465063125864314</v>
+        <v>0.3470171733451646</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3912302554213937</v>
+        <v>0.390449371776911</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1018</v>
@@ -2501,19 +2501,19 @@
         <v>1058698</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1011484</v>
+        <v>1010044</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1107805</v>
+        <v>1104063</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4600310069908319</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4395154551606719</v>
+        <v>0.438889842420479</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4813692437366623</v>
+        <v>0.4797433182808947</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1697</v>
@@ -2522,19 +2522,19 @@
         <v>1764702</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1700701</v>
+        <v>1703613</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1829427</v>
+        <v>1830217</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.419010984531705</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4038147419973355</v>
+        <v>0.40450618918399</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4343794846732857</v>
+        <v>0.4345669172472289</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1204222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1162888</v>
+        <v>1164379</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1248321</v>
+        <v>1247345</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.630408270883614</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6087697445786061</v>
+        <v>0.6095506282230889</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6534936874135684</v>
+        <v>0.6529828266548353</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1217</v>
@@ -2572,19 +2572,19 @@
         <v>1242664</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1193557</v>
+        <v>1197299</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1289878</v>
+        <v>1291318</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5399689930091681</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5186307562633378</v>
+        <v>0.5202566817191053</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5604845448393281</v>
+        <v>0.561110157579521</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2423</v>
@@ -2593,19 +2593,19 @@
         <v>2446886</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2382161</v>
+        <v>2381371</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2510887</v>
+        <v>2507975</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.580989015468295</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5656205153267144</v>
+        <v>0.5654330827527713</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5961852580026645</v>
+        <v>0.59549381081601</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>89766</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75294</v>
+        <v>76071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>103948</v>
+        <v>102275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5050852563857371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4236557460106971</v>
+        <v>0.4280315358932418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5848819145679163</v>
+        <v>0.5754732253431827</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -2962,19 +2962,19 @@
         <v>140966</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127161</v>
+        <v>125780</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154088</v>
+        <v>153746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.675502954456327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6093489136347129</v>
+        <v>0.6027308412427992</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7383822703016244</v>
+        <v>0.7367438599571301</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -2983,19 +2983,19 @@
         <v>230732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211356</v>
+        <v>208481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>251013</v>
+        <v>248773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5971209818874761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5469754363565115</v>
+        <v>0.5395359907807257</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.649606973637288</v>
+        <v>0.6438079375409826</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>87958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73776</v>
+        <v>75449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102430</v>
+        <v>101653</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4949147436142629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4151180854320833</v>
+        <v>0.4245267746568173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5763442539893029</v>
+        <v>0.5719684641067582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>64</v>
@@ -3033,19 +3033,19 @@
         <v>67717</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54595</v>
+        <v>54937</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81522</v>
+        <v>82903</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.324497045543673</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2616177296983755</v>
+        <v>0.2632561400428699</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3906510863652871</v>
+        <v>0.3972691587572007</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -3054,19 +3054,19 @@
         <v>155676</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>135395</v>
+        <v>137635</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>175052</v>
+        <v>177927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4028790181125239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3503930263627123</v>
+        <v>0.3561920624590174</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4530245636434886</v>
+        <v>0.4604640092192743</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>133403</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114910</v>
+        <v>116976</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152161</v>
+        <v>152281</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4210674284121638</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3626960382933978</v>
+        <v>0.3692180076777953</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4802733651520419</v>
+        <v>0.4806527103114644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -3179,19 +3179,19 @@
         <v>215479</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196222</v>
+        <v>194906</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>233794</v>
+        <v>232892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.601207354227783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5474783870187414</v>
+        <v>0.5438045552538641</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6523057098465426</v>
+        <v>0.649789714185856</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>331</v>
@@ -3200,19 +3200,19 @@
         <v>348882</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320890</v>
+        <v>321221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>377702</v>
+        <v>377356</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5166849559701366</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4752298451630035</v>
+        <v>0.4757199933102764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5593659760138715</v>
+        <v>0.5588541170944079</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>183419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>164661</v>
+        <v>164541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>201912</v>
+        <v>199846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5789325715878363</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5197266348479582</v>
+        <v>0.5193472896885357</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6373039617066022</v>
+        <v>0.6307819923222049</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>132</v>
@@ -3250,19 +3250,19 @@
         <v>142932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>124617</v>
+        <v>125519</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>162189</v>
+        <v>163505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3987926457722169</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3476942901534574</v>
+        <v>0.3502102858141437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4525216129812586</v>
+        <v>0.4561954447461354</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>298</v>
@@ -3271,19 +3271,19 @@
         <v>326350</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>297530</v>
+        <v>297876</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>354342</v>
+        <v>354011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4833150440298634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4406340239861284</v>
+        <v>0.4411458829055921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5247701548369964</v>
+        <v>0.5242800066897239</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>106314</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91895</v>
+        <v>91599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122417</v>
+        <v>120358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.518111269271593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4478413717297121</v>
+        <v>0.4463994347608541</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5965898569851606</v>
+        <v>0.5865533491609862</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -3396,19 +3396,19 @@
         <v>141824</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>124114</v>
+        <v>124769</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156139</v>
+        <v>157858</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.591921986468143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5180062455352306</v>
+        <v>0.5207425543792765</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6516663500411295</v>
+        <v>0.6588438933476268</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>234</v>
@@ -3417,19 +3417,19 @@
         <v>248138</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>225874</v>
+        <v>227218</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>269923</v>
+        <v>270333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5578712585866664</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5078162701048113</v>
+        <v>0.5108390612688588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6068485611066138</v>
+        <v>0.6077702273858527</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>98881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82778</v>
+        <v>84837</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113300</v>
+        <v>113596</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.481888730728407</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4034101430148392</v>
+        <v>0.4134466508390138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5521586282702879</v>
+        <v>0.5536005652391459</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>92</v>
@@ -3467,19 +3467,19 @@
         <v>97775</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83460</v>
+        <v>81741</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>115485</v>
+        <v>114830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4080780135318571</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3483336499588705</v>
+        <v>0.3411561066523732</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4819937544647693</v>
+        <v>0.4792574456207235</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>185</v>
@@ -3488,19 +3488,19 @@
         <v>196656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174871</v>
+        <v>174461</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218920</v>
+        <v>217576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4421287414133336</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3931514388933861</v>
+        <v>0.3922297726141471</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4921837298951886</v>
+        <v>0.4891609387311411</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>117388</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100746</v>
+        <v>101500</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133230</v>
+        <v>134184</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4815587334558986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.413288729905042</v>
+        <v>0.4163819239904483</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5465489649972823</v>
+        <v>0.5504616176823017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -3613,19 +3613,19 @@
         <v>181866</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164759</v>
+        <v>165821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>198460</v>
+        <v>198875</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6214005852202363</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5629490953505119</v>
+        <v>0.5665789260975779</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6781005132305784</v>
+        <v>0.6795179494538628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>276</v>
@@ -3634,19 +3634,19 @@
         <v>299254</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>273494</v>
+        <v>274855</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>323153</v>
+        <v>322985</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5578540042364875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5098346462094527</v>
+        <v>0.5123708000493994</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6024061864321653</v>
+        <v>0.6020933695633068</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>126378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110536</v>
+        <v>109582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>143020</v>
+        <v>142266</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5184412665441014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4534510350027175</v>
+        <v>0.4495383823176976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5867112700949575</v>
+        <v>0.5836180760095516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -3684,19 +3684,19 @@
         <v>110805</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>94211</v>
+        <v>93796</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127912</v>
+        <v>126850</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3785994147797637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3218994867694215</v>
+        <v>0.3204820505461374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4370509046494883</v>
+        <v>0.4334210739024221</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -3705,19 +3705,19 @@
         <v>237183</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>213284</v>
+        <v>213452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>262943</v>
+        <v>261582</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4421459957635125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3975938135678348</v>
+        <v>0.3979066304366932</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4901653537905473</v>
+        <v>0.4876291999506009</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>56081</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44588</v>
+        <v>44954</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68343</v>
+        <v>68422</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3865985011464427</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.307371431936509</v>
+        <v>0.309897742354967</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4711315624150242</v>
+        <v>0.4716734992304659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>91</v>
@@ -3830,19 +3830,19 @@
         <v>95217</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82505</v>
+        <v>80459</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>107913</v>
+        <v>106818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5717322983969425</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.495405255108077</v>
+        <v>0.4831196075575092</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6479637689686775</v>
+        <v>0.641392149174007</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -3851,19 +3851,19 @@
         <v>151298</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>133386</v>
+        <v>132663</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168716</v>
+        <v>169948</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4855458768144207</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4280624490679916</v>
+        <v>0.4257424441936506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5414457328638583</v>
+        <v>0.5453981276518225</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>88981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76719</v>
+        <v>76640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100474</v>
+        <v>100108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6134014988535572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5288684375849773</v>
+        <v>0.5283265007695345</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6926285680634915</v>
+        <v>0.6901022576450332</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>68</v>
@@ -3901,19 +3901,19 @@
         <v>71324</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58628</v>
+        <v>59723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84036</v>
+        <v>86082</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4282677016030575</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3520362310313224</v>
+        <v>0.3586078508259928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5045947448919229</v>
+        <v>0.5168803924424907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>148</v>
@@ -3922,19 +3922,19 @@
         <v>160305</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>142887</v>
+        <v>141655</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178217</v>
+        <v>178940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5144541231855793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.458554267136142</v>
+        <v>0.4546018723481774</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5719375509320085</v>
+        <v>0.5742575558063493</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>87933</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74480</v>
+        <v>75015</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102037</v>
+        <v>101413</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4997378447662078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4232845892783934</v>
+        <v>0.4263240165523991</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5798943082645319</v>
+        <v>0.5763475428063</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>115</v>
@@ -4047,19 +4047,19 @@
         <v>118159</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103741</v>
+        <v>103828</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>132798</v>
+        <v>131732</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5782001988903473</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5076460636318331</v>
+        <v>0.5080742536374175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6498389676241625</v>
+        <v>0.6446212387611627</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>199</v>
@@ -4068,19 +4068,19 @@
         <v>206092</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>186365</v>
+        <v>186458</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>226276</v>
+        <v>225705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5418983766717324</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4900279806229161</v>
+        <v>0.4902735182010418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5949711884249306</v>
+        <v>0.593470294242856</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>88025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73921</v>
+        <v>74545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101478</v>
+        <v>100943</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5002621552337922</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4201056917354681</v>
+        <v>0.4236524571936998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5767154107216066</v>
+        <v>0.5736759834476008</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -4118,19 +4118,19 @@
         <v>86197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71558</v>
+        <v>72624</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100615</v>
+        <v>100528</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4217998011096527</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3501610323758375</v>
+        <v>0.3553787612388373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4923539363681668</v>
+        <v>0.4919257463625825</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>166</v>
@@ -4139,19 +4139,19 @@
         <v>174222</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154038</v>
+        <v>154609</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>193949</v>
+        <v>193856</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4581016233282676</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4050288115750693</v>
+        <v>0.4065297057571438</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5099720193770839</v>
+        <v>0.5097264817989577</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>242659</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>224087</v>
+        <v>222837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>264465</v>
+        <v>262809</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6113276638939346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5645380866404793</v>
+        <v>0.5613890905876466</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6662617560854567</v>
+        <v>0.6620899228259598</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>275</v>
@@ -4264,19 +4264,19 @@
         <v>293639</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>272056</v>
+        <v>273465</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>314228</v>
+        <v>313705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6430828347052169</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5958147762088308</v>
+        <v>0.5989018187862017</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6881743181386085</v>
+        <v>0.6870285034601318</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>498</v>
@@ -4285,19 +4285,19 @@
         <v>536298</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>507997</v>
+        <v>505745</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>564928</v>
+        <v>562790</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6283152663509449</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5951589631710071</v>
+        <v>0.5925207425732941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6618578152111024</v>
+        <v>0.6593528692485628</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>154279</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>132473</v>
+        <v>134129</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>172851</v>
+        <v>174101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3886723361060655</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3337382439145433</v>
+        <v>0.3379100771740403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4354619133595207</v>
+        <v>0.4386109094123533</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>149</v>
@@ -4335,19 +4335,19 @@
         <v>162972</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>142383</v>
+        <v>142906</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>184555</v>
+        <v>183146</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3569171652947832</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3118256818613915</v>
+        <v>0.3129714965398678</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4041852237911689</v>
+        <v>0.4010981812137983</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>293</v>
@@ -4356,19 +4356,19 @@
         <v>317251</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>288621</v>
+        <v>290759</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>345552</v>
+        <v>347804</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3716847336490551</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3381421847888976</v>
+        <v>0.3406471307514371</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4048410368289929</v>
+        <v>0.4074792574267057</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>221698</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>200554</v>
+        <v>198823</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>244867</v>
+        <v>243996</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4658890942881759</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4214548533658412</v>
+        <v>0.4178174989894525</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5145779418685871</v>
+        <v>0.5127472518977153</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>335</v>
@@ -4481,19 +4481,19 @@
         <v>362875</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>339890</v>
+        <v>337992</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>388465</v>
+        <v>386382</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.615083701032351</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5761236408321403</v>
+        <v>0.5729060950266367</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6584607412641973</v>
+        <v>0.6549288941101461</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>545</v>
@@ -4502,19 +4502,19 @@
         <v>584573</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>553416</v>
+        <v>551274</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>618665</v>
+        <v>614578</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5484722522308909</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5192399393629945</v>
+        <v>0.5172298015852608</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5804590403255397</v>
+        <v>0.5766246776860241</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>254162</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>230993</v>
+        <v>231864</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>275306</v>
+        <v>277037</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5341109057118241</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.485422058131413</v>
+        <v>0.4872527481022846</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5785451466341588</v>
+        <v>0.5821825010105474</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>210</v>
@@ -4552,19 +4552,19 @@
         <v>227085</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>201495</v>
+        <v>203578</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>250070</v>
+        <v>251968</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3849162989676491</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3415392587358028</v>
+        <v>0.3450711058898538</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4238763591678598</v>
+        <v>0.4270939049733634</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>440</v>
@@ -4573,19 +4573,19 @@
         <v>481247</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>447155</v>
+        <v>451242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>512404</v>
+        <v>514546</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.451527747769109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4195409596744603</v>
+        <v>0.4233753223139761</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4807600606370053</v>
+        <v>0.4827701984147393</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1055242</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4937206355335992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1439</v>
@@ -4698,19 +4698,19 @@
         <v>1550023</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1498584</v>
+        <v>1500361</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1595736</v>
+        <v>1596208</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6158631954970049</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5954253542089712</v>
+        <v>0.5961312239354161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6340260702513091</v>
+        <v>0.6342134912009012</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2436</v>
@@ -4719,19 +4719,19 @@
         <v>2605265</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2535138</v>
+        <v>2536938</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2670047</v>
+        <v>2671108</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5597717211130014</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.544704203860465</v>
+        <v>0.5450909527022776</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5736908535048751</v>
+        <v>0.5739189378405558</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1082084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1034015</v>
+        <v>1028402</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1132244</v>
+        <v>1129437</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5062793644664008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4837893086428177</v>
+        <v>0.4811630565107921</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5297481336689498</v>
+        <v>0.5284344909699149</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>904</v>
@@ -4769,19 +4769,19 @@
         <v>966807</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>921094</v>
+        <v>920622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1018246</v>
+        <v>1016469</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3841368045029952</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3659739297486909</v>
+        <v>0.3657865087990987</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4045746457910288</v>
+        <v>0.4038687760645839</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1901</v>
@@ -4790,19 +4790,19 @@
         <v>2048891</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1984109</v>
+        <v>1983048</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2119018</v>
+        <v>2117218</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4402282788869986</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.426309146495125</v>
+        <v>0.4260810621594442</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.455295796139535</v>
+        <v>0.4549090472977224</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>78449</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64425</v>
+        <v>64668</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91072</v>
+        <v>90877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4522573288567778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3714064209521075</v>
+        <v>0.3728124423232098</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5250273059007011</v>
+        <v>0.5239017361359136</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>100</v>
@@ -5159,19 +5159,19 @@
         <v>101374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86911</v>
+        <v>86983</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114943</v>
+        <v>115853</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5062358264709707</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4340111535594197</v>
+        <v>0.4343690886659161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5739965899753536</v>
+        <v>0.5785404502328526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>170</v>
@@ -5180,19 +5180,19 @@
         <v>179823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>159044</v>
+        <v>160557</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198145</v>
+        <v>199225</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4811813224740756</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4255779706768735</v>
+        <v>0.4296282647575017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5302090028645893</v>
+        <v>0.5330977934406995</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>95012</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>82389</v>
+        <v>82584</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109036</v>
+        <v>108793</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5477426711432223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4749726940992989</v>
+        <v>0.4760982638640864</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6285935790478927</v>
+        <v>0.6271875576767904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>92</v>
@@ -5230,19 +5230,19 @@
         <v>98877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85308</v>
+        <v>84398</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113340</v>
+        <v>113268</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4937641735290293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4260034100246466</v>
+        <v>0.4214595497671473</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5659888464405805</v>
+        <v>0.5656309113340839</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -5251,19 +5251,19 @@
         <v>193889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>175567</v>
+        <v>174487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>214668</v>
+        <v>213155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5188186775259244</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4697909971354103</v>
+        <v>0.4669022065593001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5744220293231264</v>
+        <v>0.5703717352424974</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>101468</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>85850</v>
+        <v>85550</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117526</v>
+        <v>117691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.386956691408831</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3273968606852466</v>
+        <v>0.3262523061702809</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4481934743708246</v>
+        <v>0.4488247415893027</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -5376,19 +5376,19 @@
         <v>155256</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>137052</v>
+        <v>137022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174016</v>
+        <v>172549</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4816826880031886</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.425202799490769</v>
+        <v>0.4251115123821794</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5398839453230627</v>
+        <v>0.5353319483615803</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>247</v>
@@ -5397,19 +5397,19 @@
         <v>256725</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>232986</v>
+        <v>233821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>280772</v>
+        <v>280061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4391893633900575</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3985786768522433</v>
+        <v>0.4000074039021905</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4803284862979006</v>
+        <v>0.4791119678089271</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>160753</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>144695</v>
+        <v>144530</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176371</v>
+        <v>176671</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6130433085911691</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5518065256291753</v>
+        <v>0.5511752584106974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6726031393147534</v>
+        <v>0.6737476938297189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>145</v>
@@ -5447,19 +5447,19 @@
         <v>167065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148305</v>
+        <v>149772</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>185269</v>
+        <v>185299</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5183173119968114</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4601160546769373</v>
+        <v>0.4646680516384197</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.574797200509231</v>
+        <v>0.5748884876178205</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>300</v>
@@ -5468,19 +5468,19 @@
         <v>327817</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>303770</v>
+        <v>304481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>351556</v>
+        <v>350721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5608106366099426</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5196715137020993</v>
+        <v>0.5208880321910729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6014213231477566</v>
+        <v>0.5999925960978095</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>68858</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57395</v>
+        <v>56241</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82544</v>
+        <v>81313</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3876077448395246</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3230804638309181</v>
+        <v>0.316587415713819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.464648278922125</v>
+        <v>0.4577183847022794</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -5593,19 +5593,19 @@
         <v>91130</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>77057</v>
+        <v>77573</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105528</v>
+        <v>105905</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4295428332645965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3632080996695281</v>
+        <v>0.3656411156391639</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4974070332775491</v>
+        <v>0.499184869691824</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -5614,19 +5614,19 @@
         <v>159988</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143502</v>
+        <v>143654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178104</v>
+        <v>177322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4104313897232202</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3681370754168563</v>
+        <v>0.3685274351612666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4569061459128466</v>
+        <v>0.4549002769119319</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>108791</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95105</v>
+        <v>96336</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>120254</v>
+        <v>121408</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6123922551604754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5353517210778744</v>
+        <v>0.5422816152977203</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6769195361690817</v>
+        <v>0.6834125842861809</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -5664,19 +5664,19 @@
         <v>121026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106628</v>
+        <v>106251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>135099</v>
+        <v>134583</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5704571667354035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5025929667224511</v>
+        <v>0.5008151303081761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6367919003304723</v>
+        <v>0.6343588843608363</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>230</v>
@@ -5685,19 +5685,19 @@
         <v>229817</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>211701</v>
+        <v>212483</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246303</v>
+        <v>246151</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5895686102767798</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5430938540871535</v>
+        <v>0.5450997230880682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6318629245831437</v>
+        <v>0.6314725648387333</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>65261</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51887</v>
+        <v>52907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79008</v>
+        <v>79986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3407618934898707</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2709294747631814</v>
+        <v>0.2762561569691859</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4125399948939056</v>
+        <v>0.4176489672103726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -5810,19 +5810,19 @@
         <v>124275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108043</v>
+        <v>108185</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142130</v>
+        <v>139173</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4860997774412305</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4226072734025864</v>
+        <v>0.4231651175157775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5559396635748622</v>
+        <v>0.5443721716710083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>180</v>
@@ -5831,19 +5831,19 @@
         <v>189536</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168504</v>
+        <v>169473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>211599</v>
+        <v>211669</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4238542821527015</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3768213180622336</v>
+        <v>0.3789881618415821</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4731917346912815</v>
+        <v>0.4733489165686646</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>126255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>112508</v>
+        <v>111530</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139629</v>
+        <v>138609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6592381065101294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5874600051060944</v>
+        <v>0.5823510327896274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7290705252368188</v>
+        <v>0.7237438430308141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>116</v>
@@ -5881,19 +5881,19 @@
         <v>131382</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113527</v>
+        <v>116484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147614</v>
+        <v>147472</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5139002225587694</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4440603364251376</v>
+        <v>0.4556278283289917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5773927265974136</v>
+        <v>0.5768348824842225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -5902,19 +5902,19 @@
         <v>257637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235574</v>
+        <v>235504</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>278669</v>
+        <v>277700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5761457178472985</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5268082653087185</v>
+        <v>0.5266510834313355</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6231786819377664</v>
+        <v>0.621011838158418</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>78766</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66630</v>
+        <v>67471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89859</v>
+        <v>88455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5886778966166706</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4979777235159196</v>
+        <v>0.5042581223466771</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6715823455621682</v>
+        <v>0.6610871535200181</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>94</v>
@@ -6027,19 +6027,19 @@
         <v>88738</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76301</v>
+        <v>76801</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99767</v>
+        <v>100587</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6098060986312449</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5243437179128815</v>
+        <v>0.5277738287579538</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6855975261060212</v>
+        <v>0.6912319639404971</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -6048,19 +6048,19 @@
         <v>167504</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>152244</v>
+        <v>148856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>183822</v>
+        <v>182758</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5996851068354638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5450539482954843</v>
+        <v>0.5329231123267546</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6581069052207633</v>
+        <v>0.6542962800332676</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>55036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>43943</v>
+        <v>45347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67172</v>
+        <v>66331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4113221033833294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3284176544378317</v>
+        <v>0.3389128464799818</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5020222764840804</v>
+        <v>0.4957418776533229</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -6098,19 +6098,19 @@
         <v>56780</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45751</v>
+        <v>44931</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69217</v>
+        <v>68717</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3901939013687551</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3144024738939787</v>
+        <v>0.3087680360595029</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4756562820871185</v>
+        <v>0.4722261712420463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>112</v>
@@ -6119,19 +6119,19 @@
         <v>111816</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>95498</v>
+        <v>96562</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127076</v>
+        <v>130464</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4003148931645362</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3418930947792369</v>
+        <v>0.3457037199667323</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4549460517045157</v>
+        <v>0.4670768876732453</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>64398</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52000</v>
+        <v>51995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76590</v>
+        <v>76633</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3994376572965551</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3225372100336737</v>
+        <v>0.32250767129156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4750611739968318</v>
+        <v>0.4753306497525355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>68</v>
@@ -6244,19 +6244,19 @@
         <v>71470</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58468</v>
+        <v>57217</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86008</v>
+        <v>84501</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4162094686599806</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3404905227006864</v>
+        <v>0.3332037284179208</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5008731935049083</v>
+        <v>0.4920946392585259</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>131</v>
@@ -6265,19 +6265,19 @@
         <v>135868</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119059</v>
+        <v>117250</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>155354</v>
+        <v>154094</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4080879340564097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3576023624391761</v>
+        <v>0.3521687997443415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4666169595414497</v>
+        <v>0.4628336749219779</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>96823</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>84631</v>
+        <v>84588</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109221</v>
+        <v>109226</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6005623427034449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5249388260031679</v>
+        <v>0.5246693502474644</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6774627899663263</v>
+        <v>0.6774923287084398</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -6315,19 +6315,19 @@
         <v>100247</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85709</v>
+        <v>87216</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113249</v>
+        <v>114500</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5837905313400193</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4991268064950918</v>
+        <v>0.5079053607414736</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6595094772993136</v>
+        <v>0.6667962715820792</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>196</v>
@@ -6336,19 +6336,19 @@
         <v>197069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>177583</v>
+        <v>178843</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213878</v>
+        <v>215687</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5919120659435904</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5333830404585506</v>
+        <v>0.5371663250780222</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6423976375608239</v>
+        <v>0.6478312002556591</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>143345</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>123735</v>
+        <v>124474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163459</v>
+        <v>163356</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4212599166877581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.36362813115727</v>
+        <v>0.3657998749397757</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4803690519621666</v>
+        <v>0.4800677531196121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>212</v>
@@ -6461,19 +6461,19 @@
         <v>220464</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>198009</v>
+        <v>197884</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>240899</v>
+        <v>243113</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4970982286419736</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4464680152886307</v>
+        <v>0.4461855765519869</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5431738332802563</v>
+        <v>0.5481661217179419</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>338</v>
@@ -6482,19 +6482,19 @@
         <v>363810</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>334206</v>
+        <v>336218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>391624</v>
+        <v>392818</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4641730085915117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4264028619001617</v>
+        <v>0.4289696703750456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4996612000148686</v>
+        <v>0.5011834386014405</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>196933</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>176819</v>
+        <v>176922</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>216543</v>
+        <v>215804</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5787400833122418</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5196309480378334</v>
+        <v>0.5199322468803876</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.63637186884273</v>
+        <v>0.6342001250602242</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>198</v>
@@ -6532,19 +6532,19 @@
         <v>223038</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>202603</v>
+        <v>200389</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>245493</v>
+        <v>245618</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5029017713580264</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4568261667197437</v>
+        <v>0.4518338782820581</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5535319847113692</v>
+        <v>0.5538144234480132</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>379</v>
@@ -6553,19 +6553,19 @@
         <v>419970</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>392156</v>
+        <v>390962</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>449574</v>
+        <v>447562</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5358269914084882</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5003387999851312</v>
+        <v>0.4988165613985594</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5735971380998383</v>
+        <v>0.5710303296249544</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>237865</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>217081</v>
+        <v>214977</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>259878</v>
+        <v>258458</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5207423508419501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4752423938926711</v>
+        <v>0.4706355275126394</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5689343229038117</v>
+        <v>0.5658264327142998</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>325</v>
@@ -6678,19 +6678,19 @@
         <v>344266</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>317057</v>
+        <v>320106</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>366915</v>
+        <v>367819</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5895980476376904</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5429997265314163</v>
+        <v>0.5482216042461908</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6283874174262719</v>
+        <v>0.6299354692851633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>551</v>
@@ -6699,19 +6699,19 @@
         <v>582130</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>547575</v>
+        <v>551023</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>614645</v>
+        <v>615892</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5593755437565578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5261711865483645</v>
+        <v>0.5294842627070171</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5906191915763337</v>
+        <v>0.5918177665113488</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>218915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>196902</v>
+        <v>198322</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>239699</v>
+        <v>241803</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.47925764915805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4310656770961883</v>
+        <v>0.4341735672857002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5247576061073289</v>
+        <v>0.5293644724873605</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>206</v>
@@ -6749,19 +6749,19 @@
         <v>239633</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>216984</v>
+        <v>216080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>266842</v>
+        <v>263793</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4104019523623096</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3716125825737281</v>
+        <v>0.3700645307148367</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4570002734685837</v>
+        <v>0.4517783957538092</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>425</v>
@@ -6770,19 +6770,19 @@
         <v>458549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>426034</v>
+        <v>424787</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>493104</v>
+        <v>489656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4406244562434422</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4093808084236663</v>
+        <v>0.4081822334886512</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4738288134516355</v>
+        <v>0.4705157372929828</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>838411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>793742</v>
+        <v>797990</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>878993</v>
+        <v>883175</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4419834977661261</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4184355226542751</v>
+        <v>0.4206750455528657</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4633770096604093</v>
+        <v>0.4655816956750568</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1166</v>
@@ -6895,19 +6895,19 @@
         <v>1196973</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1147150</v>
+        <v>1145017</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1246574</v>
+        <v>1241465</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5126178078255506</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4912804575366539</v>
+        <v>0.4903669355975773</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5338602065694077</v>
+        <v>0.5316721693369082</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1959</v>
@@ -6916,19 +6916,19 @@
         <v>2035384</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1970146</v>
+        <v>1964123</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2100575</v>
+        <v>2098738</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4809566904588984</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4655411691895628</v>
+        <v>0.4641178742951955</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4963613103609708</v>
+        <v>0.4959272555984746</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1058517</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1017935</v>
+        <v>1013753</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1103186</v>
+        <v>1098938</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5580165022338739</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5366229903395906</v>
+        <v>0.5344183043249431</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5815644773457248</v>
+        <v>0.5793249544471337</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1015</v>
@@ -6966,19 +6966,19 @@
         <v>1138047</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1088446</v>
+        <v>1093555</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1187870</v>
+        <v>1190003</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4873821921744494</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4661397934305924</v>
+        <v>0.4683278306630919</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5087195424633463</v>
+        <v>0.5096330644024227</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2064</v>
@@ -6987,19 +6987,19 @@
         <v>2196564</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2131373</v>
+        <v>2133210</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2261802</v>
+        <v>2267825</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5190433095411016</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.503638689639029</v>
+        <v>0.5040727444015256</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5344588308104368</v>
+        <v>0.5358821257048046</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>10974</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5980</v>
+        <v>5932</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17958</v>
+        <v>17543</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0344180080643281</v>
+        <v>0.03441800806432811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01875434297900865</v>
+        <v>0.01860365817488707</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05632157415209851</v>
+        <v>0.05502033421441509</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -7356,19 +7356,19 @@
         <v>17597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11703</v>
+        <v>12147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24234</v>
+        <v>24470</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05567716541617911</v>
+        <v>0.05567716541617913</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03702816890317859</v>
+        <v>0.03843374706553939</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07667579510541149</v>
+        <v>0.07742256204374783</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -7377,19 +7377,19 @@
         <v>28571</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20786</v>
+        <v>20732</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38399</v>
+        <v>38731</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04500096640037269</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03273944142077897</v>
+        <v>0.03265440692820865</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06047999385360685</v>
+        <v>0.0610024651242339</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>307871</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>300887</v>
+        <v>301302</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>312865</v>
+        <v>312913</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9655819919356718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9436784258479014</v>
+        <v>0.9449796657855858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9812456570209914</v>
+        <v>0.981396341825113</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>508</v>
@@ -7427,19 +7427,19 @@
         <v>298464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>291827</v>
+        <v>291591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304358</v>
+        <v>303914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9443228345838209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9233242048945886</v>
+        <v>0.9225774379562517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9629718310968215</v>
+        <v>0.9615662529344602</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>826</v>
@@ -7448,19 +7448,19 @@
         <v>606335</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>596507</v>
+        <v>596175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>614120</v>
+        <v>614174</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9549990335996272</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9395200061463931</v>
+        <v>0.9389975348757662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9672605585792213</v>
+        <v>0.9673455930717914</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>34730</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23829</v>
+        <v>22692</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50036</v>
+        <v>50453</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06544830693723322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04490492944499561</v>
+        <v>0.04276223419063095</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09429233654046146</v>
+        <v>0.09507757887208099</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -7573,19 +7573,19 @@
         <v>70956</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>57734</v>
+        <v>56209</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87768</v>
+        <v>87199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1298384122442718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1056439406915743</v>
+        <v>0.1028533666957614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.160601297548064</v>
+        <v>0.1595600335288188</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>113</v>
@@ -7594,19 +7594,19 @@
         <v>105686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86244</v>
+        <v>86062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128203</v>
+        <v>127209</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0981170262518478</v>
+        <v>0.09811702625184782</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08006740203937819</v>
+        <v>0.07989890496354601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1190217551072078</v>
+        <v>0.1180989370502288</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>495917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>480611</v>
+        <v>480194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>506818</v>
+        <v>507955</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9345516930627666</v>
+        <v>0.9345516930627668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9057076634595385</v>
+        <v>0.904922421127919</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9550950705550043</v>
+        <v>0.9572377658093691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>632</v>
@@ -7644,19 +7644,19 @@
         <v>475538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458726</v>
+        <v>459295</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>488760</v>
+        <v>490285</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8701615877557283</v>
+        <v>0.8701615877557282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.839398702451935</v>
+        <v>0.840439966471181</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8943560593084255</v>
+        <v>0.8971466333042382</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>986</v>
@@ -7665,19 +7665,19 @@
         <v>971455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>948938</v>
+        <v>949932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>990897</v>
+        <v>991079</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9018829737481521</v>
+        <v>0.9018829737481522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8809782448927922</v>
+        <v>0.8819010629497712</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9199325979606217</v>
+        <v>0.920101095036454</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>17988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11293</v>
+        <v>11573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26593</v>
+        <v>26700</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05692500046783181</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03573735501501469</v>
+        <v>0.03662574216841629</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08415566241113097</v>
+        <v>0.08449581762821042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -7790,19 +7790,19 @@
         <v>23873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17061</v>
+        <v>17071</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33232</v>
+        <v>33152</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06698718849919809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04787298158095104</v>
+        <v>0.04789997694294346</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09324780491589871</v>
+        <v>0.09302305348745613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -7811,19 +7811,19 @@
         <v>41861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>32197</v>
+        <v>31666</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54833</v>
+        <v>53769</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06225830002636989</v>
+        <v>0.06225830002636987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04788542184435437</v>
+        <v>0.04709567846850326</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08155113560667465</v>
+        <v>0.07996851047661126</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>298005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289400</v>
+        <v>289293</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>304700</v>
+        <v>304420</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9430749995321682</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9158443375888692</v>
+        <v>0.9155041823717898</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9642626449849853</v>
+        <v>0.963374257831584</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -7861,19 +7861,19 @@
         <v>332508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>323149</v>
+        <v>323229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>339320</v>
+        <v>339310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9330128115008018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9067521950841013</v>
+        <v>0.9069769465125439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.952127018419049</v>
+        <v>0.9521000230570565</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>838</v>
@@ -7882,19 +7882,19 @@
         <v>630514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617542</v>
+        <v>618606</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640178</v>
+        <v>640709</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9377416999736303</v>
+        <v>0.93774169997363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9184488643933256</v>
+        <v>0.9200314895233886</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9521145781556457</v>
+        <v>0.9529043215314966</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>34084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21986</v>
+        <v>20182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51328</v>
+        <v>50850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09134323775344297</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05891997000788229</v>
+        <v>0.05408628860265975</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1375562020406017</v>
+        <v>0.1362745838753881</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -8007,19 +8007,19 @@
         <v>55771</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>44497</v>
+        <v>42837</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>71102</v>
+        <v>69121</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1321704031798264</v>
+        <v>0.1321704031798265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1054535153596289</v>
+        <v>0.1015195599963468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1685035197292785</v>
+        <v>0.1638080533984289</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -8028,19 +8028,19 @@
         <v>89855</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71758</v>
+        <v>72407</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112507</v>
+        <v>112949</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.11301012802388</v>
+        <v>0.1130101280238799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09024993798978509</v>
+        <v>0.09106610536982031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1414991751328306</v>
+        <v>0.1420555862347452</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>339061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>321817</v>
+        <v>322295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351159</v>
+        <v>352963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9086567622465571</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8624437979593989</v>
+        <v>0.8637254161246117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9410800299921179</v>
+        <v>0.9459137113973403</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>529</v>
@@ -8078,19 +8078,19 @@
         <v>366190</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350859</v>
+        <v>352840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377464</v>
+        <v>379124</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8678295968201736</v>
+        <v>0.8678295968201738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8314964802707215</v>
+        <v>0.8361919466015714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8945464846403711</v>
+        <v>0.8984804400036533</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>798</v>
@@ -8099,19 +8099,19 @@
         <v>705252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>682600</v>
+        <v>682158</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>723349</v>
+        <v>722700</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8869898719761201</v>
+        <v>0.8869898719761199</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8585008248671695</v>
+        <v>0.857944413765255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9097500620102149</v>
+        <v>0.9089338946301796</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>18246</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10999</v>
+        <v>11497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27277</v>
+        <v>27547</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08871684693417789</v>
+        <v>0.08871684693417788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05348173850440784</v>
+        <v>0.05590103996460207</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1326267219793699</v>
+        <v>0.1339409219254813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -8224,19 +8224,19 @@
         <v>14885</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9925</v>
+        <v>9932</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22133</v>
+        <v>21715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06502180389007065</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04335501033886566</v>
+        <v>0.04338506712091229</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09668449542384985</v>
+        <v>0.0948613863982327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -8245,19 +8245,19 @@
         <v>33131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24676</v>
+        <v>24801</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44878</v>
+        <v>43979</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07623540892807805</v>
+        <v>0.07623540892807806</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05678001395043985</v>
+        <v>0.05706782900126815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.103266478676959</v>
+        <v>0.1011992693132877</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>187419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178388</v>
+        <v>178118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194666</v>
+        <v>194168</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9112831530658219</v>
+        <v>0.9112831530658222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8673732780206301</v>
+        <v>0.866059078074519</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9465182614955919</v>
+        <v>0.9440989600353981</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>466</v>
@@ -8295,19 +8295,19 @@
         <v>214033</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206785</v>
+        <v>207203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218993</v>
+        <v>218986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9349781961099295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9033155045761503</v>
+        <v>0.9051386136017673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9566449896611345</v>
+        <v>0.9566149328790877</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>724</v>
@@ -8316,19 +8316,19 @@
         <v>401451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389704</v>
+        <v>390603</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>409906</v>
+        <v>409781</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9237645910719219</v>
+        <v>0.923764591071922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8967335213230411</v>
+        <v>0.8988007306867124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9432199860495595</v>
+        <v>0.9429321709987319</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>31384</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23894</v>
+        <v>22563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43435</v>
+        <v>42709</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1159341609788399</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08826371513550037</v>
+        <v>0.08334847452514833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1604503241404033</v>
+        <v>0.1577690240700429</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -8441,19 +8441,19 @@
         <v>32559</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24594</v>
+        <v>24856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43148</v>
+        <v>43082</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.123446129922163</v>
+        <v>0.1234461299221629</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09324903415573454</v>
+        <v>0.09424007368905456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1635950701348096</v>
+        <v>0.1633441120090529</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -8462,19 +8462,19 @@
         <v>63943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52257</v>
+        <v>51642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>77738</v>
+        <v>77343</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1196412562107172</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09777662259386978</v>
+        <v>0.09662483264247508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1454519927538006</v>
+        <v>0.1447138109747486</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>239323</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227272</v>
+        <v>227998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>246813</v>
+        <v>248144</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8840658390211601</v>
+        <v>0.88406583902116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8395496758595963</v>
+        <v>0.8422309759299571</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9117362848644995</v>
+        <v>0.9166515254748517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>411</v>
@@ -8512,19 +8512,19 @@
         <v>231191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>220602</v>
+        <v>220668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239156</v>
+        <v>238894</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8765538700778371</v>
+        <v>0.876553870077837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8364049298651904</v>
+        <v>0.836655887990946</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9067509658442655</v>
+        <v>0.9057599263109454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>744</v>
@@ -8533,19 +8533,19 @@
         <v>470514</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>456719</v>
+        <v>457114</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482200</v>
+        <v>482815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8803587437892828</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8545480072462001</v>
+        <v>0.8552861890252513</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9022233774061305</v>
+        <v>0.903375167357525</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>23241</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14848</v>
+        <v>14668</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37922</v>
+        <v>37353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03229289725489523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02063181159926398</v>
+        <v>0.0203808939125641</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05269227668816562</v>
+        <v>0.05190175139238658</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -8658,19 +8658,19 @@
         <v>38167</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29016</v>
+        <v>28961</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50203</v>
+        <v>49810</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04943610789999952</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03758235808899626</v>
+        <v>0.03751117661384001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06502476373466501</v>
+        <v>0.06451612013864302</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -8679,19 +8679,19 @@
         <v>61408</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46946</v>
+        <v>47491</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>76832</v>
+        <v>77930</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0411654206043538</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03147043131865096</v>
+        <v>0.03183597739672922</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05150471725912634</v>
+        <v>0.05224101276816952</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>696446</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>681765</v>
+        <v>682334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>704839</v>
+        <v>705019</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9677071027451047</v>
+        <v>0.967707102745105</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9473077233118343</v>
+        <v>0.9480982486076134</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.979368188400736</v>
+        <v>0.9796191060874357</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>908</v>
@@ -8729,19 +8729,19 @@
         <v>733890</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>721854</v>
+        <v>722247</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>743041</v>
+        <v>743096</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9505638921000004</v>
+        <v>0.9505638921000003</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.934975236265335</v>
+        <v>0.9354838798613568</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9624176419110035</v>
+        <v>0.9624888233861598</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1487</v>
@@ -8750,19 +8750,19 @@
         <v>1430336</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1414912</v>
+        <v>1413814</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1444798</v>
+        <v>1444253</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9588345793956462</v>
+        <v>0.9588345793956464</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9484952827408736</v>
+        <v>0.9477589872318304</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9685295686813492</v>
+        <v>0.9681640226032709</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>142592</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>119817</v>
+        <v>121064</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>165018</v>
+        <v>164561</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1786711065379832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1501335557173899</v>
+        <v>0.1516952550804786</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2067702181000488</v>
+        <v>0.2061987782912062</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>275</v>
@@ -8875,19 +8875,19 @@
         <v>226830</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>203687</v>
+        <v>205118</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>249848</v>
+        <v>250107</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2728517975038013</v>
+        <v>0.2728517975038014</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2450130635351119</v>
+        <v>0.2467343328357934</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3005401672963559</v>
+        <v>0.3008515855432224</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>401</v>
@@ -8896,19 +8896,19 @@
         <v>369423</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>338937</v>
+        <v>339282</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>403365</v>
+        <v>402477</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2267226651371846</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2080126967677676</v>
+        <v>0.2082249571238333</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2475535548922917</v>
+        <v>0.2470090033773158</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>655480</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>633054</v>
+        <v>633511</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>678255</v>
+        <v>677008</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8213288934620168</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7932297818999509</v>
+        <v>0.7938012217087939</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8498664442826099</v>
+        <v>0.8483047449195201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>787</v>
@@ -8946,19 +8946,19 @@
         <v>604501</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>581483</v>
+        <v>581224</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>627644</v>
+        <v>626213</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7271482024961986</v>
+        <v>0.7271482024961985</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6994598327036442</v>
+        <v>0.6991484144567774</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7549869364648881</v>
+        <v>0.7532656671642065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1423</v>
@@ -8967,19 +8967,19 @@
         <v>1259980</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1226038</v>
+        <v>1226926</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1290466</v>
+        <v>1290121</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7732773348628154</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7524464451077083</v>
+        <v>0.7529909966226842</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7919873032322323</v>
+        <v>0.7917750428761665</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>313239</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>280672</v>
+        <v>275404</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>351639</v>
+        <v>352544</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08866702436893069</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07944826271950657</v>
+        <v>0.07795703078252395</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0995366328128586</v>
+        <v>0.09979285974013072</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>626</v>
@@ -9092,19 +9092,19 @@
         <v>480638</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>445020</v>
+        <v>442523</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>518579</v>
+        <v>516857</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1286177089042559</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.119086193978789</v>
+        <v>0.1184181477089327</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1387704893502798</v>
+        <v>0.1383096580329775</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>917</v>
@@ -9113,19 +9113,19 @@
         <v>793878</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>742821</v>
+        <v>742346</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>846590</v>
+        <v>847352</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1092034353490972</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1021802560258225</v>
+        <v>0.1021148609654936</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1164543098162483</v>
+        <v>0.1165591015863938</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3219523</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3181123</v>
+        <v>3180218</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3252090</v>
+        <v>3257358</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9113329756310694</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9004633671871414</v>
+        <v>0.9002071402598691</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9205517372804936</v>
+        <v>0.922042969217476</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4741</v>
@@ -9163,19 +9163,19 @@
         <v>3256316</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3218375</v>
+        <v>3220097</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3291934</v>
+        <v>3294431</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8713822910957443</v>
+        <v>0.8713822910957441</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8612295106497201</v>
+        <v>0.8616903419670223</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8809138060212111</v>
+        <v>0.8815818522910672</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7826</v>
@@ -9184,19 +9184,19 @@
         <v>6475838</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6423126</v>
+        <v>6422364</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6526895</v>
+        <v>6527370</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8907965646509027</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.883545690183752</v>
+        <v>0.8834408984136062</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8978197439741779</v>
+        <v>0.8978851390345064</v>
       </c>
     </row>
     <row r="30">
